--- a/biology/Botanique/Justin_Paillot/Justin_Paillot.xlsx
+++ b/biology/Botanique/Justin_Paillot/Justin_Paillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justin Paillot est un pharmacien et un botaniste français, né le 24 juillet 1828 à Soye dans le Doubs et mort le 4 novembre 1891 à Rougemont (Doubs).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence sa carrière comme instituteur à Nans avant de devenir pharmacien. Il exerce à Besançon de 1863 à 1865 puis à Rougemont.
-Il est membre de la Société botanique de France et de la Société d’émulation du Doubs. C'est un botaniste amateur qui échange avec des botanistes renommés, on retrouve ses récoltes dans l'herbier Mantz[1], entre autres.
+Il est membre de la Société botanique de France et de la Société d’émulation du Doubs. C'est un botaniste amateur qui échange avec des botanistes renommés, on retrouve ses récoltes dans l'herbier Mantz, entre autres.
 À la mort de Paul-Constant Billot, avec lequel il a collaboré, Justin Paillot et d'autres botanistes comme V. Bavoux, A. et P. Guichard, continuent la publication posthume de l'herbier de Billot sous le nom de Billotia.
 Il fut le maître du lichénologue Bisontin Camille Flagey (1834-1898).
 </t>
